--- a/web/pns/ART_Daily_Form_v5_2021_08_06.xlsx
+++ b/web/pns/ART_Daily_Form_v5_2021_08_06.xlsx
@@ -3487,12 +3487,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3502,19 +3496,52 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3556,2757 +3583,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="311">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="274">
     <dxf>
       <font>
         <b val="0"/>
@@ -6716,6 +4009,2387 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -6886,42 +6560,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="t_data" displayName="t_data" ref="A1:J139" totalsRowShown="0" headerRowDxfId="310" dataDxfId="309" tableBorderDxfId="308">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="t_data" displayName="t_data" ref="A1:J139" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A1:J139"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="COUNTY" dataDxfId="307">
+    <tableColumn id="1" name="COUNTY" dataDxfId="16">
       <calculatedColumnFormula>sitecounty</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="FACILITY" dataDxfId="306">
+    <tableColumn id="2" name="FACILITY" dataDxfId="15">
       <calculatedColumnFormula>site</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="MFLCODE" dataDxfId="305">
+    <tableColumn id="3" name="MFLCODE" dataDxfId="14">
       <calculatedColumnFormula>mflcode</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="DATE" dataDxfId="304">
+    <tableColumn id="4" name="DATE" dataDxfId="13">
       <calculatedColumnFormula>yyyy&amp;"-"&amp;mm&amp;"-"&amp;dd</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="SDP" dataDxfId="303">
+    <tableColumn id="5" name="SDP" dataDxfId="12">
       <calculatedColumnFormula>sdp</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="TREATMENT" dataDxfId="302"/>
-    <tableColumn id="7" name="INDICATOR" dataDxfId="301"/>
-    <tableColumn id="8" name="GENDER" dataDxfId="300"/>
-    <tableColumn id="9" name="AGE_GROUP" dataDxfId="299"/>
-    <tableColumn id="10" name="TOTAL" dataDxfId="298"/>
+    <tableColumn id="6" name="TREATMENT" dataDxfId="11"/>
+    <tableColumn id="7" name="INDICATOR" dataDxfId="10"/>
+    <tableColumn id="8" name="GENDER" dataDxfId="9"/>
+    <tableColumn id="9" name="AGE_GROUP" dataDxfId="8"/>
+    <tableColumn id="10" name="TOTAL" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="t_SurgeFacilities" displayName="t_SurgeFacilities" ref="A1:D328" totalsRowShown="0" headerRowDxfId="297" dataDxfId="296" tableBorderDxfId="295">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="t_SurgeFacilities" displayName="t_SurgeFacilities" ref="A1:D328" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D328"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="County " dataDxfId="294"/>
-    <tableColumn id="2" name="Facility_ID" dataDxfId="293"/>
-    <tableColumn id="3" name="Facility" dataDxfId="292"/>
-    <tableColumn id="4" name="MflCode" dataDxfId="291"/>
+    <tableColumn id="1" name="County " dataDxfId="3"/>
+    <tableColumn id="2" name="Facility_ID" dataDxfId="2"/>
+    <tableColumn id="3" name="Facility" dataDxfId="1"/>
+    <tableColumn id="4" name="MflCode" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7234,7 +6908,7 @@
       <selection activeCell="Y45" sqref="Y45"/>
       <selection pane="topRight" activeCell="Y45" sqref="Y45"/>
       <selection pane="bottomLeft" activeCell="Y45" sqref="Y45"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="12"/>
@@ -7379,7 +7053,7 @@
       </c>
     </row>
     <row r="2" spans="1:80" ht="12.75" thickBot="1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="104" t="s">
         <v>811</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -7470,7 +7144,7 @@
       <c r="BI2" s="74"/>
     </row>
     <row r="3" spans="1:80" ht="12.75" thickBot="1">
-      <c r="A3" s="97"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
@@ -7499,15 +7173,15 @@
       <c r="AA3" s="36"/>
     </row>
     <row r="4" spans="1:80">
-      <c r="A4" s="97"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
@@ -7526,42 +7200,42 @@
       <c r="U4" s="37"/>
       <c r="V4" s="37"/>
       <c r="W4" s="38"/>
-      <c r="X4" s="101" t="s">
+      <c r="X4" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="102"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="110"/>
       <c r="AA4" s="39"/>
     </row>
     <row r="5" spans="1:80" ht="12.75" thickBot="1">
-      <c r="A5" s="98"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="40"/>
-      <c r="C5" s="103" t="str">
+      <c r="C5" s="111" t="str">
         <f>IF(ISERROR((RIGHT(B5,LEN(B5)- FIND("_",B5)))),"",(RIGHT(B5,LEN(B5)- FIND("_",B5))))</f>
         <v/>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="106" t="s">
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="114" t="s">
         <v>808</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="108"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="116"/>
       <c r="X5" s="41" t="s">
         <v>4</v>
       </c>
@@ -7569,7 +7243,7 @@
         <v>5</v>
       </c>
       <c r="Z5" s="42">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="AA5" s="43"/>
     </row>
@@ -7578,79 +7252,79 @@
       <c r="B6" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114"/>
-      <c r="AA6" s="114"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
     </row>
     <row r="7" spans="1:80" s="48" customFormat="1">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="92"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="95" t="s">
         <v>194</v>
       </c>
       <c r="D7" s="95"/>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="F7" s="103"/>
+      <c r="G7" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="86" t="s">
+      <c r="H7" s="103"/>
+      <c r="I7" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="86" t="s">
+      <c r="J7" s="103"/>
+      <c r="K7" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="86" t="s">
+      <c r="L7" s="103"/>
+      <c r="M7" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="86" t="s">
+      <c r="N7" s="102"/>
+      <c r="O7" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="86" t="s">
+      <c r="P7" s="103"/>
+      <c r="Q7" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="R7" s="120"/>
+      <c r="R7" s="102"/>
       <c r="S7" s="95" t="s">
         <v>202</v>
       </c>
       <c r="T7" s="95"/>
-      <c r="U7" s="86" t="s">
+      <c r="U7" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="V7" s="87"/>
+      <c r="V7" s="103"/>
       <c r="W7" s="95" t="s">
         <v>204</v>
       </c>
@@ -7658,8 +7332,8 @@
       <c r="Y7" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="112" t="s">
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="92" t="s">
         <v>217</v>
       </c>
       <c r="AB7" s="46"/>
@@ -7717,8 +7391,8 @@
       <c r="CB7" s="47"/>
     </row>
     <row r="8" spans="1:80" s="48" customFormat="1" ht="12.75" thickBot="1">
-      <c r="A8" s="93"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="49" t="s">
         <v>0</v>
       </c>
@@ -7791,7 +7465,7 @@
       <c r="Z8" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AA8" s="113"/>
+      <c r="AA8" s="93"/>
       <c r="AB8" s="46"/>
       <c r="AC8" s="27"/>
       <c r="AD8" s="47"/>
@@ -7850,34 +7524,34 @@
       <c r="A9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="116"/>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="90"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="88"/>
       <c r="AB9" s="53" t="s">
         <v>208</v>
       </c>
@@ -8215,34 +7889,34 @@
     </row>
     <row r="17" spans="1:29" s="59" customFormat="1" ht="15.75" thickBot="1">
       <c r="A17" s="54"/>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="90"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="88"/>
       <c r="AB17" s="58" t="s">
         <v>18</v>
       </c>
@@ -8370,34 +8044,34 @@
     </row>
     <row r="21" spans="1:29" ht="15.75" thickBot="1">
       <c r="A21" s="54"/>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="90"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="88"/>
       <c r="AB21" s="60" t="s">
         <v>17</v>
       </c>
@@ -8843,34 +8517,34 @@
     </row>
     <row r="33" spans="1:28" ht="15.75" thickBot="1">
       <c r="A33" s="54"/>
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="89"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="89"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="89"/>
-      <c r="Z33" s="89"/>
-      <c r="AA33" s="90"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="87"/>
+      <c r="AA33" s="88"/>
       <c r="AB33" s="60" t="s">
         <v>15</v>
       </c>
@@ -8956,34 +8630,34 @@
     </row>
     <row r="36" spans="1:28" ht="15.75" thickBot="1">
       <c r="A36" s="54"/>
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="86" t="s">
         <v>758</v>
       </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="89"/>
-      <c r="Q36" s="89"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="89"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="89"/>
-      <c r="AA36" s="90"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="87"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="87"/>
+      <c r="X36" s="87"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="87"/>
+      <c r="AA36" s="88"/>
       <c r="AB36" s="56" t="s">
         <v>759</v>
       </c>
@@ -9029,34 +8703,34 @@
     </row>
     <row r="38" spans="1:28" ht="15.75" thickBot="1">
       <c r="A38" s="54"/>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="86" t="s">
         <v>762</v>
       </c>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
-      <c r="W38" s="89"/>
-      <c r="X38" s="89"/>
-      <c r="Y38" s="89"/>
-      <c r="Z38" s="89"/>
-      <c r="AA38" s="90"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="87"/>
+      <c r="U38" s="87"/>
+      <c r="V38" s="87"/>
+      <c r="W38" s="87"/>
+      <c r="X38" s="87"/>
+      <c r="Y38" s="87"/>
+      <c r="Z38" s="87"/>
+      <c r="AA38" s="88"/>
       <c r="AB38" s="56" t="s">
         <v>0</v>
       </c>
@@ -9261,34 +8935,34 @@
     </row>
     <row r="44" spans="1:28" ht="15.75" thickBot="1">
       <c r="A44" s="54"/>
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="86" t="s">
         <v>802</v>
       </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="89"/>
-      <c r="S44" s="89"/>
-      <c r="T44" s="89"/>
-      <c r="U44" s="89"/>
-      <c r="V44" s="89"/>
-      <c r="W44" s="89"/>
-      <c r="X44" s="89"/>
-      <c r="Y44" s="89"/>
-      <c r="Z44" s="89"/>
-      <c r="AA44" s="90"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="87"/>
+      <c r="W44" s="87"/>
+      <c r="X44" s="87"/>
+      <c r="Y44" s="87"/>
+      <c r="Z44" s="87"/>
+      <c r="AA44" s="88"/>
       <c r="AB44" s="56" t="s">
         <v>803</v>
       </c>
@@ -9412,34 +9086,34 @@
     </row>
     <row r="48" spans="1:28" ht="15.75" thickBot="1">
       <c r="A48" s="54"/>
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="86" t="s">
         <v>812</v>
       </c>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="89"/>
-      <c r="Q48" s="89"/>
-      <c r="R48" s="89"/>
-      <c r="S48" s="89"/>
-      <c r="T48" s="89"/>
-      <c r="U48" s="89"/>
-      <c r="V48" s="89"/>
-      <c r="W48" s="89"/>
-      <c r="X48" s="89"/>
-      <c r="Y48" s="89"/>
-      <c r="Z48" s="89"/>
-      <c r="AA48" s="90"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="87"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="87"/>
+      <c r="V48" s="87"/>
+      <c r="W48" s="87"/>
+      <c r="X48" s="87"/>
+      <c r="Y48" s="87"/>
+      <c r="Z48" s="87"/>
+      <c r="AA48" s="88"/>
       <c r="AB48" s="56" t="s">
         <v>816</v>
       </c>
@@ -9566,68 +9240,82 @@
       <c r="B52" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="117" t="s">
+      <c r="C52" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="118"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="118"/>
-      <c r="U52" s="118"/>
-      <c r="V52" s="118"/>
-      <c r="W52" s="118"/>
-      <c r="X52" s="118"/>
-      <c r="Y52" s="118"/>
-      <c r="Z52" s="118"/>
-      <c r="AA52" s="119"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="100"/>
+      <c r="O52" s="100"/>
+      <c r="P52" s="100"/>
+      <c r="Q52" s="100"/>
+      <c r="R52" s="100"/>
+      <c r="S52" s="100"/>
+      <c r="T52" s="100"/>
+      <c r="U52" s="100"/>
+      <c r="V52" s="100"/>
+      <c r="W52" s="100"/>
+      <c r="X52" s="100"/>
+      <c r="Y52" s="100"/>
+      <c r="Z52" s="100"/>
+      <c r="AA52" s="101"/>
       <c r="AB52" s="56"/>
     </row>
     <row r="53" spans="1:80" ht="12.75" thickBot="1">
       <c r="B53" s="63"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="110"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
-      <c r="K53" s="110"/>
-      <c r="L53" s="110"/>
-      <c r="M53" s="110"/>
-      <c r="N53" s="110"/>
-      <c r="O53" s="110"/>
-      <c r="P53" s="110"/>
-      <c r="Q53" s="110"/>
-      <c r="R53" s="110"/>
-      <c r="S53" s="110"/>
-      <c r="T53" s="110"/>
-      <c r="U53" s="110"/>
-      <c r="V53" s="110"/>
-      <c r="W53" s="110"/>
-      <c r="X53" s="110"/>
-      <c r="Y53" s="110"/>
-      <c r="Z53" s="110"/>
-      <c r="AA53" s="111"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="90"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="90"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="90"/>
+      <c r="U53" s="90"/>
+      <c r="V53" s="90"/>
+      <c r="W53" s="90"/>
+      <c r="X53" s="90"/>
+      <c r="Y53" s="90"/>
+      <c r="Z53" s="90"/>
+      <c r="AA53" s="91"/>
       <c r="AB53" s="60"/>
       <c r="CB53" s="69"/>
     </row>
   </sheetData>
   <sheetProtection password="CC71" sheet="1" selectLockedCells="1"/>
   <mergeCells count="30">
+    <mergeCell ref="B36:AA36"/>
+    <mergeCell ref="B38:AA38"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:W5"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="B48:AA48"/>
     <mergeCell ref="C53:AA53"/>
     <mergeCell ref="AA7:AA8"/>
@@ -9644,614 +9332,600 @@
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="B44:AA44"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:W5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B36:AA36"/>
-    <mergeCell ref="B38:AA38"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="C18:Z18">
-    <cfRule type="notContainsBlanks" dxfId="138" priority="153">
+    <cfRule type="notContainsBlanks" dxfId="273" priority="153">
       <formula>LEN(TRIM(C18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:Z16">
-    <cfRule type="notContainsBlanks" dxfId="137" priority="152">
+    <cfRule type="notContainsBlanks" dxfId="272" priority="152">
       <formula>LEN(TRIM(C10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA18:AA20 AA22:AA32 AA34:AA35 AA10:AA16">
-    <cfRule type="notContainsBlanks" dxfId="136" priority="155">
+    <cfRule type="notContainsBlanks" dxfId="271" priority="155">
       <formula>LEN(TRIM(AA10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:AA53">
-    <cfRule type="notContainsBlanks" dxfId="135" priority="151">
+    <cfRule type="notContainsBlanks" dxfId="270" priority="151">
       <formula>LEN(TRIM(B53))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 B3">
-    <cfRule type="notContainsBlanks" dxfId="134" priority="150">
+    <cfRule type="notContainsBlanks" dxfId="269" priority="150">
       <formula>LEN(TRIM(B3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="notContainsBlanks" dxfId="133" priority="149">
+    <cfRule type="notContainsBlanks" dxfId="268" priority="149">
       <formula>LEN(TRIM(C6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:Z20 C22:Z29 C31:Z32 C34:Z35">
-    <cfRule type="notContainsBlanks" dxfId="132" priority="147">
+    <cfRule type="notContainsBlanks" dxfId="267" priority="147">
       <formula>LEN(TRIM(C18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA37">
-    <cfRule type="notContainsBlanks" dxfId="131" priority="146">
+    <cfRule type="notContainsBlanks" dxfId="266" priority="146">
       <formula>LEN(TRIM(AA37))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:Z37">
-    <cfRule type="notContainsBlanks" dxfId="130" priority="145">
+    <cfRule type="notContainsBlanks" dxfId="265" priority="145">
       <formula>LEN(TRIM(C37))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA39:AA43">
-    <cfRule type="notContainsBlanks" dxfId="129" priority="143">
+    <cfRule type="notContainsBlanks" dxfId="264" priority="143">
       <formula>LEN(TRIM(AA39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:Z43">
-    <cfRule type="notContainsBlanks" dxfId="128" priority="142">
+    <cfRule type="notContainsBlanks" dxfId="263" priority="142">
       <formula>LEN(TRIM(C39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:Z40">
-    <cfRule type="expression" dxfId="127" priority="127">
+    <cfRule type="expression" dxfId="262" priority="127">
       <formula>C40&gt;C39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:Z42">
-    <cfRule type="expression" dxfId="126" priority="124">
+    <cfRule type="expression" dxfId="261" priority="124">
       <formula>C42&gt;C41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA45:AA47">
-    <cfRule type="notContainsBlanks" dxfId="125" priority="123">
+    <cfRule type="notContainsBlanks" dxfId="260" priority="123">
       <formula>LEN(TRIM(AA45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:K46 M45:M46 O45:O46 Q45:Q46 S45:S46 U45:U46 W45:W46 Y45:Y46">
-    <cfRule type="notContainsBlanks" dxfId="124" priority="122">
+    <cfRule type="notContainsBlanks" dxfId="259" priority="122">
       <formula>LEN(TRIM(K45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46 M46 O46 Q46 S46 U46 W46 Y46">
-    <cfRule type="expression" dxfId="123" priority="121">
+    <cfRule type="expression" dxfId="258" priority="121">
       <formula>K46&gt;K45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:I47">
-    <cfRule type="notContainsBlanks" dxfId="122" priority="120">
+    <cfRule type="notContainsBlanks" dxfId="257" priority="120">
       <formula>LEN(TRIM(C45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:J47">
-    <cfRule type="notContainsBlanks" dxfId="121" priority="119">
+    <cfRule type="notContainsBlanks" dxfId="256" priority="119">
       <formula>LEN(TRIM(J45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:L47">
-    <cfRule type="notContainsBlanks" dxfId="120" priority="118">
+    <cfRule type="notContainsBlanks" dxfId="255" priority="118">
       <formula>LEN(TRIM(L45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45:N47">
-    <cfRule type="notContainsBlanks" dxfId="119" priority="117">
+    <cfRule type="notContainsBlanks" dxfId="254" priority="117">
       <formula>LEN(TRIM(N45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45:P47">
-    <cfRule type="notContainsBlanks" dxfId="118" priority="116">
+    <cfRule type="notContainsBlanks" dxfId="253" priority="116">
       <formula>LEN(TRIM(P45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R45:R47">
-    <cfRule type="notContainsBlanks" dxfId="117" priority="115">
+    <cfRule type="notContainsBlanks" dxfId="252" priority="115">
       <formula>LEN(TRIM(R45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T45:T47">
-    <cfRule type="notContainsBlanks" dxfId="116" priority="114">
+    <cfRule type="notContainsBlanks" dxfId="251" priority="114">
       <formula>LEN(TRIM(T45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V45:V47">
-    <cfRule type="notContainsBlanks" dxfId="115" priority="113">
+    <cfRule type="notContainsBlanks" dxfId="250" priority="113">
       <formula>LEN(TRIM(V45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X45:X47">
-    <cfRule type="notContainsBlanks" dxfId="114" priority="112">
+    <cfRule type="notContainsBlanks" dxfId="249" priority="112">
       <formula>LEN(TRIM(X45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z45:Z47">
-    <cfRule type="notContainsBlanks" dxfId="113" priority="111">
+    <cfRule type="notContainsBlanks" dxfId="248" priority="111">
       <formula>LEN(TRIM(Z45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="expression" dxfId="112" priority="110">
+    <cfRule type="expression" dxfId="247" priority="110">
       <formula>K46&gt;K45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45">
-    <cfRule type="expression" dxfId="111" priority="109">
+    <cfRule type="expression" dxfId="246" priority="109">
       <formula>K46&gt;K45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46">
-    <cfRule type="expression" dxfId="110" priority="108">
+    <cfRule type="expression" dxfId="245" priority="108">
       <formula>M46&gt;M45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45">
-    <cfRule type="expression" dxfId="109" priority="107">
+    <cfRule type="expression" dxfId="244" priority="107">
       <formula>M46&gt;M45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O46">
-    <cfRule type="expression" dxfId="108" priority="106">
+    <cfRule type="expression" dxfId="243" priority="106">
       <formula>O46&gt;O45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45">
-    <cfRule type="expression" dxfId="107" priority="105">
+    <cfRule type="expression" dxfId="242" priority="105">
       <formula>O46&gt;O45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q46">
-    <cfRule type="expression" dxfId="106" priority="104">
+    <cfRule type="expression" dxfId="241" priority="104">
       <formula>Q46&gt;Q45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q45">
-    <cfRule type="expression" dxfId="105" priority="103">
+    <cfRule type="expression" dxfId="240" priority="103">
       <formula>Q46&gt;Q45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S46">
-    <cfRule type="expression" dxfId="104" priority="102">
+    <cfRule type="expression" dxfId="239" priority="102">
       <formula>S46&gt;S45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S45">
-    <cfRule type="expression" dxfId="103" priority="101">
+    <cfRule type="expression" dxfId="238" priority="101">
       <formula>S46&gt;S45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U46">
-    <cfRule type="expression" dxfId="102" priority="100">
+    <cfRule type="expression" dxfId="237" priority="100">
       <formula>U46&gt;U45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U45">
-    <cfRule type="expression" dxfId="101" priority="99">
+    <cfRule type="expression" dxfId="236" priority="99">
       <formula>U46&gt;U45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W46">
-    <cfRule type="expression" dxfId="100" priority="98">
+    <cfRule type="expression" dxfId="235" priority="98">
       <formula>W46&gt;W45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W45">
-    <cfRule type="expression" dxfId="99" priority="97">
+    <cfRule type="expression" dxfId="234" priority="97">
       <formula>W46&gt;W45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y46">
-    <cfRule type="expression" dxfId="98" priority="96">
+    <cfRule type="expression" dxfId="233" priority="96">
       <formula>Y46&gt;Y45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y45">
-    <cfRule type="expression" dxfId="97" priority="95">
+    <cfRule type="expression" dxfId="232" priority="95">
       <formula>Y46&gt;Y45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="96" priority="94">
+    <cfRule type="expression" dxfId="231" priority="94">
       <formula>C35&gt;C34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="95" priority="93">
+    <cfRule type="expression" dxfId="230" priority="93">
       <formula>C35&gt;C34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="94" priority="92">
+    <cfRule type="expression" dxfId="229" priority="92">
       <formula>D35&gt;D34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="93" priority="91">
+    <cfRule type="expression" dxfId="228" priority="91">
       <formula>D35&gt;D34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="92" priority="90">
+    <cfRule type="expression" dxfId="227" priority="90">
       <formula>E35&gt;E34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="91" priority="89">
+    <cfRule type="expression" dxfId="226" priority="89">
       <formula>E35&gt;E34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="90" priority="88">
+    <cfRule type="expression" dxfId="225" priority="88">
       <formula>F35&gt;F34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="89" priority="87">
+    <cfRule type="expression" dxfId="224" priority="87">
       <formula>F35&gt;F34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="88" priority="86">
+    <cfRule type="expression" dxfId="223" priority="86">
       <formula>G35&gt;G34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="87" priority="85">
+    <cfRule type="expression" dxfId="222" priority="85">
       <formula>G35&gt;G34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="86" priority="84">
+    <cfRule type="expression" dxfId="221" priority="84">
       <formula>H35&gt;H34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="85" priority="83">
+    <cfRule type="expression" dxfId="220" priority="83">
       <formula>H35&gt;H34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="84" priority="82">
+    <cfRule type="expression" dxfId="219" priority="82">
       <formula>I35&gt;I34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="83" priority="81">
+    <cfRule type="expression" dxfId="218" priority="81">
       <formula>I35&gt;I34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="expression" dxfId="82" priority="80">
+    <cfRule type="expression" dxfId="217" priority="80">
       <formula>J35&gt;J34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="expression" dxfId="81" priority="79">
+    <cfRule type="expression" dxfId="216" priority="79">
       <formula>J35&gt;J34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="expression" dxfId="80" priority="78">
+    <cfRule type="expression" dxfId="215" priority="78">
       <formula>K35&gt;K34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="79" priority="77">
+    <cfRule type="expression" dxfId="214" priority="77">
       <formula>K35&gt;K34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="expression" dxfId="78" priority="76">
+    <cfRule type="expression" dxfId="213" priority="76">
       <formula>L35&gt;L34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="expression" dxfId="77" priority="75">
+    <cfRule type="expression" dxfId="212" priority="75">
       <formula>L35&gt;L34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="expression" dxfId="76" priority="74">
+    <cfRule type="expression" dxfId="211" priority="74">
       <formula>M35&gt;M34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34">
-    <cfRule type="expression" dxfId="75" priority="73">
+    <cfRule type="expression" dxfId="210" priority="73">
       <formula>M35&gt;M34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="expression" dxfId="74" priority="72">
+    <cfRule type="expression" dxfId="209" priority="72">
       <formula>N35&gt;N34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="expression" dxfId="73" priority="71">
+    <cfRule type="expression" dxfId="208" priority="71">
       <formula>N35&gt;N34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35">
-    <cfRule type="expression" dxfId="72" priority="70">
+    <cfRule type="expression" dxfId="207" priority="70">
       <formula>O35&gt;O34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34">
-    <cfRule type="expression" dxfId="71" priority="69">
+    <cfRule type="expression" dxfId="206" priority="69">
       <formula>O35&gt;O34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35">
-    <cfRule type="expression" dxfId="70" priority="68">
+    <cfRule type="expression" dxfId="205" priority="68">
       <formula>P35&gt;P34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34">
-    <cfRule type="expression" dxfId="69" priority="67">
+    <cfRule type="expression" dxfId="204" priority="67">
       <formula>P35&gt;P34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35">
-    <cfRule type="expression" dxfId="68" priority="66">
+    <cfRule type="expression" dxfId="203" priority="66">
       <formula>Q35&gt;Q34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="expression" dxfId="67" priority="65">
+    <cfRule type="expression" dxfId="202" priority="65">
       <formula>Q35&gt;Q34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R35">
-    <cfRule type="expression" dxfId="66" priority="64">
+    <cfRule type="expression" dxfId="201" priority="64">
       <formula>R35&gt;R34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34">
-    <cfRule type="expression" dxfId="65" priority="63">
+    <cfRule type="expression" dxfId="200" priority="63">
       <formula>R35&gt;R34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S35">
-    <cfRule type="expression" dxfId="64" priority="62">
+    <cfRule type="expression" dxfId="199" priority="62">
       <formula>S35&gt;S34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34">
-    <cfRule type="expression" dxfId="63" priority="61">
+    <cfRule type="expression" dxfId="198" priority="61">
       <formula>S35&gt;S34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35">
-    <cfRule type="expression" dxfId="62" priority="60">
+    <cfRule type="expression" dxfId="197" priority="60">
       <formula>T35&gt;T34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T34">
-    <cfRule type="expression" dxfId="61" priority="59">
+    <cfRule type="expression" dxfId="196" priority="59">
       <formula>T35&gt;T34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U35">
-    <cfRule type="expression" dxfId="60" priority="58">
+    <cfRule type="expression" dxfId="195" priority="58">
       <formula>U35&gt;U34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34">
-    <cfRule type="expression" dxfId="59" priority="57">
+    <cfRule type="expression" dxfId="194" priority="57">
       <formula>U35&gt;U34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="expression" dxfId="58" priority="56">
+    <cfRule type="expression" dxfId="193" priority="56">
       <formula>V35&gt;V34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="expression" dxfId="57" priority="55">
+    <cfRule type="expression" dxfId="192" priority="55">
       <formula>V35&gt;V34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="expression" dxfId="56" priority="54">
+    <cfRule type="expression" dxfId="191" priority="54">
       <formula>W35&gt;W34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W34">
-    <cfRule type="expression" dxfId="55" priority="53">
+    <cfRule type="expression" dxfId="190" priority="53">
       <formula>W35&gt;W34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35">
-    <cfRule type="expression" dxfId="54" priority="52">
+    <cfRule type="expression" dxfId="189" priority="52">
       <formula>X35&gt;X34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34">
-    <cfRule type="expression" dxfId="53" priority="51">
+    <cfRule type="expression" dxfId="188" priority="51">
       <formula>X35&gt;X34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y35">
-    <cfRule type="expression" dxfId="52" priority="50">
+    <cfRule type="expression" dxfId="187" priority="50">
       <formula>Y35&gt;Y34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y34">
-    <cfRule type="expression" dxfId="51" priority="49">
+    <cfRule type="expression" dxfId="186" priority="49">
       <formula>Y35&gt;Y34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z35">
-    <cfRule type="expression" dxfId="50" priority="48">
+    <cfRule type="expression" dxfId="185" priority="48">
       <formula>Z35&gt;Z34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z34">
-    <cfRule type="expression" dxfId="49" priority="47">
+    <cfRule type="expression" dxfId="184" priority="47">
       <formula>Z35&gt;Z34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB53">
-    <cfRule type="notContainsBlanks" dxfId="48" priority="46">
+    <cfRule type="notContainsBlanks" dxfId="183" priority="46">
       <formula>LEN(TRIM(CB53))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="notContainsBlanks" dxfId="47" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="182" priority="45">
       <formula>LEN(TRIM(K47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M47">
-    <cfRule type="notContainsBlanks" dxfId="46" priority="44">
+    <cfRule type="notContainsBlanks" dxfId="181" priority="44">
       <formula>LEN(TRIM(M47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O47">
-    <cfRule type="notContainsBlanks" dxfId="45" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="180" priority="43">
       <formula>LEN(TRIM(O47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q47">
-    <cfRule type="notContainsBlanks" dxfId="44" priority="42">
+    <cfRule type="notContainsBlanks" dxfId="179" priority="42">
       <formula>LEN(TRIM(Q47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S47">
-    <cfRule type="notContainsBlanks" dxfId="43" priority="41">
+    <cfRule type="notContainsBlanks" dxfId="178" priority="41">
       <formula>LEN(TRIM(S47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="40">
+    <cfRule type="notContainsBlanks" dxfId="177" priority="40">
       <formula>LEN(TRIM(U47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W47">
-    <cfRule type="notContainsBlanks" dxfId="41" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="176" priority="39">
       <formula>LEN(TRIM(W47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y47">
-    <cfRule type="notContainsBlanks" dxfId="40" priority="38">
+    <cfRule type="notContainsBlanks" dxfId="175" priority="38">
       <formula>LEN(TRIM(Y47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA49:AA51">
-    <cfRule type="notContainsBlanks" dxfId="39" priority="37">
+    <cfRule type="notContainsBlanks" dxfId="174" priority="37">
       <formula>LEN(TRIM(AA49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K50 M49:M50 O49:O50 Q49:Q50 S49:S50 U49:U50 W49:W50 Y49:Y50">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="36">
+    <cfRule type="notContainsBlanks" dxfId="173" priority="36">
       <formula>LEN(TRIM(K49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:I51">
-    <cfRule type="notContainsBlanks" dxfId="37" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="172" priority="34">
       <formula>LEN(TRIM(C49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:J51">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="171" priority="33">
       <formula>LEN(TRIM(J49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:L51">
-    <cfRule type="notContainsBlanks" dxfId="35" priority="32">
+    <cfRule type="notContainsBlanks" dxfId="170" priority="32">
       <formula>LEN(TRIM(L49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49:N51">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="31">
+    <cfRule type="notContainsBlanks" dxfId="169" priority="31">
       <formula>LEN(TRIM(N49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49:P51">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="168" priority="30">
       <formula>LEN(TRIM(P49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R49:R51">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="167" priority="29">
       <formula>LEN(TRIM(R49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T49:T51">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="166" priority="28">
       <formula>LEN(TRIM(T49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49:V51">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="165" priority="27">
       <formula>LEN(TRIM(V49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X49:X51">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="164" priority="26">
       <formula>LEN(TRIM(X49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z49:Z51">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="163" priority="25">
       <formula>LEN(TRIM(Z49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="162" priority="8">
       <formula>LEN(TRIM(K51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="161" priority="7">
       <formula>LEN(TRIM(M51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="160" priority="6">
       <formula>LEN(TRIM(O51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="159" priority="5">
       <formula>LEN(TRIM(Q51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S51">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="158" priority="4">
       <formula>LEN(TRIM(S51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U51">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="157" priority="3">
       <formula>LEN(TRIM(U51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="156" priority="2">
       <formula>LEN(TRIM(W51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y51">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="155" priority="1">
       <formula>LEN(TRIM(Y51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10302,7 +9976,7 @@
       <selection activeCell="H54" sqref="H54"/>
       <selection pane="topRight" activeCell="H54" sqref="H54"/>
       <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="12"/>
@@ -10447,7 +10121,7 @@
       </c>
     </row>
     <row r="2" spans="1:80" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="104" t="s">
         <v>811</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -10519,7 +10193,7 @@
       </c>
     </row>
     <row r="3" spans="1:80" ht="12.75" thickBot="1">
-      <c r="A3" s="97"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
@@ -10548,15 +10222,15 @@
       <c r="AA3" s="36"/>
     </row>
     <row r="4" spans="1:80">
-      <c r="A4" s="97"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
@@ -10575,42 +10249,42 @@
       <c r="U4" s="37"/>
       <c r="V4" s="37"/>
       <c r="W4" s="38"/>
-      <c r="X4" s="101" t="s">
+      <c r="X4" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="102"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="110"/>
       <c r="AA4" s="39"/>
     </row>
     <row r="5" spans="1:80" ht="12.75" thickBot="1">
-      <c r="A5" s="98"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="40"/>
-      <c r="C5" s="103" t="str">
+      <c r="C5" s="111" t="str">
         <f>IF(ISERROR((RIGHT(B5,LEN(B5)- FIND("_",B5)))),"",(RIGHT(B5,LEN(B5)- FIND("_",B5))))</f>
         <v/>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="106" t="s">
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="114" t="s">
         <v>808</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="108"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="116"/>
       <c r="X5" s="72" t="s">
         <v>4</v>
       </c>
@@ -10618,7 +10292,7 @@
         <v>5</v>
       </c>
       <c r="Z5" s="73">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="AA5" s="43"/>
     </row>
@@ -10627,79 +10301,79 @@
       <c r="B6" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114"/>
-      <c r="AA6" s="114"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
     </row>
     <row r="7" spans="1:80" s="48" customFormat="1">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="92"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="95" t="s">
         <v>194</v>
       </c>
       <c r="D7" s="95"/>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="F7" s="103"/>
+      <c r="G7" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="86" t="s">
+      <c r="H7" s="103"/>
+      <c r="I7" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="86" t="s">
+      <c r="J7" s="103"/>
+      <c r="K7" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="86" t="s">
+      <c r="L7" s="103"/>
+      <c r="M7" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="86" t="s">
+      <c r="N7" s="102"/>
+      <c r="O7" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="86" t="s">
+      <c r="P7" s="103"/>
+      <c r="Q7" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="R7" s="120"/>
+      <c r="R7" s="102"/>
       <c r="S7" s="95" t="s">
         <v>202</v>
       </c>
       <c r="T7" s="95"/>
-      <c r="U7" s="86" t="s">
+      <c r="U7" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="V7" s="87"/>
+      <c r="V7" s="103"/>
       <c r="W7" s="95" t="s">
         <v>204</v>
       </c>
@@ -10707,8 +10381,8 @@
       <c r="Y7" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="112" t="s">
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="92" t="s">
         <v>217</v>
       </c>
       <c r="AB7" s="46"/>
@@ -10766,8 +10440,8 @@
       <c r="CB7" s="47"/>
     </row>
     <row r="8" spans="1:80" s="48" customFormat="1" ht="12.75" thickBot="1">
-      <c r="A8" s="93"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="49" t="s">
         <v>0</v>
       </c>
@@ -10840,7 +10514,7 @@
       <c r="Z8" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AA8" s="113"/>
+      <c r="AA8" s="93"/>
       <c r="AB8" s="46"/>
       <c r="AC8" s="27"/>
       <c r="AD8" s="74"/>
@@ -10899,34 +10573,34 @@
       <c r="A9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="116"/>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="90"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="88"/>
       <c r="AB9" s="53" t="s">
         <v>208</v>
       </c>
@@ -11264,34 +10938,34 @@
     </row>
     <row r="17" spans="1:61" s="59" customFormat="1" ht="15.75" thickBot="1">
       <c r="A17" s="54"/>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="116"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="116"/>
-      <c r="Y17" s="116"/>
-      <c r="Z17" s="116"/>
-      <c r="AA17" s="90"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="88"/>
       <c r="AB17" s="58" t="s">
         <v>18</v>
       </c>
@@ -11483,34 +11157,34 @@
     </row>
     <row r="21" spans="1:61" ht="15.75" thickBot="1">
       <c r="A21" s="54"/>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="90"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="88"/>
       <c r="AB21" s="60" t="s">
         <v>17</v>
       </c>
@@ -11956,34 +11630,34 @@
     </row>
     <row r="33" spans="1:61" ht="15.75" thickBot="1">
       <c r="A33" s="54"/>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="116"/>
-      <c r="S33" s="116"/>
-      <c r="T33" s="116"/>
-      <c r="U33" s="116"/>
-      <c r="V33" s="116"/>
-      <c r="W33" s="116"/>
-      <c r="X33" s="116"/>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="116"/>
-      <c r="AA33" s="90"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="88"/>
       <c r="AB33" s="60" t="s">
         <v>15</v>
       </c>
@@ -12069,34 +11743,34 @@
     </row>
     <row r="36" spans="1:61" ht="15.75" thickBot="1">
       <c r="A36" s="54"/>
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="97" t="s">
         <v>758</v>
       </c>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="116"/>
-      <c r="R36" s="116"/>
-      <c r="S36" s="116"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="116"/>
-      <c r="V36" s="116"/>
-      <c r="W36" s="116"/>
-      <c r="X36" s="116"/>
-      <c r="Y36" s="116"/>
-      <c r="Z36" s="116"/>
-      <c r="AA36" s="90"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="98"/>
+      <c r="P36" s="98"/>
+      <c r="Q36" s="98"/>
+      <c r="R36" s="98"/>
+      <c r="S36" s="98"/>
+      <c r="T36" s="98"/>
+      <c r="U36" s="98"/>
+      <c r="V36" s="98"/>
+      <c r="W36" s="98"/>
+      <c r="X36" s="98"/>
+      <c r="Y36" s="98"/>
+      <c r="Z36" s="98"/>
+      <c r="AA36" s="88"/>
       <c r="AB36" s="56" t="s">
         <v>759</v>
       </c>
@@ -12142,34 +11816,34 @@
     </row>
     <row r="38" spans="1:61" ht="15.75" thickBot="1">
       <c r="A38" s="54"/>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="97" t="s">
         <v>762</v>
       </c>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="116"/>
-      <c r="Q38" s="116"/>
-      <c r="R38" s="116"/>
-      <c r="S38" s="116"/>
-      <c r="T38" s="116"/>
-      <c r="U38" s="116"/>
-      <c r="V38" s="116"/>
-      <c r="W38" s="116"/>
-      <c r="X38" s="116"/>
-      <c r="Y38" s="116"/>
-      <c r="Z38" s="116"/>
-      <c r="AA38" s="90"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="98"/>
+      <c r="R38" s="98"/>
+      <c r="S38" s="98"/>
+      <c r="T38" s="98"/>
+      <c r="U38" s="98"/>
+      <c r="V38" s="98"/>
+      <c r="W38" s="98"/>
+      <c r="X38" s="98"/>
+      <c r="Y38" s="98"/>
+      <c r="Z38" s="98"/>
+      <c r="AA38" s="88"/>
       <c r="AB38" s="56" t="s">
         <v>0</v>
       </c>
@@ -12374,34 +12048,34 @@
     </row>
     <row r="44" spans="1:61" ht="15.75" thickBot="1">
       <c r="A44" s="54"/>
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="86" t="s">
         <v>802</v>
       </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="89"/>
-      <c r="S44" s="89"/>
-      <c r="T44" s="89"/>
-      <c r="U44" s="89"/>
-      <c r="V44" s="89"/>
-      <c r="W44" s="89"/>
-      <c r="X44" s="89"/>
-      <c r="Y44" s="89"/>
-      <c r="Z44" s="89"/>
-      <c r="AA44" s="90"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="87"/>
+      <c r="W44" s="87"/>
+      <c r="X44" s="87"/>
+      <c r="Y44" s="87"/>
+      <c r="Z44" s="87"/>
+      <c r="AA44" s="88"/>
       <c r="AB44" s="56" t="s">
         <v>803</v>
       </c>
@@ -12525,34 +12199,34 @@
     </row>
     <row r="48" spans="1:61" ht="15.75" thickBot="1">
       <c r="A48" s="54"/>
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="86" t="s">
         <v>812</v>
       </c>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="89"/>
-      <c r="Q48" s="89"/>
-      <c r="R48" s="89"/>
-      <c r="S48" s="89"/>
-      <c r="T48" s="89"/>
-      <c r="U48" s="89"/>
-      <c r="V48" s="89"/>
-      <c r="W48" s="89"/>
-      <c r="X48" s="89"/>
-      <c r="Y48" s="89"/>
-      <c r="Z48" s="89"/>
-      <c r="AA48" s="90"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="87"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="87"/>
+      <c r="V48" s="87"/>
+      <c r="W48" s="87"/>
+      <c r="X48" s="87"/>
+      <c r="Y48" s="87"/>
+      <c r="Z48" s="87"/>
+      <c r="AA48" s="88"/>
       <c r="AB48" s="56" t="s">
         <v>816</v>
       </c>
@@ -12807,62 +12481,62 @@
       <c r="B52" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="117" t="s">
+      <c r="C52" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="118"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="118"/>
-      <c r="U52" s="118"/>
-      <c r="V52" s="118"/>
-      <c r="W52" s="118"/>
-      <c r="X52" s="118"/>
-      <c r="Y52" s="118"/>
-      <c r="Z52" s="118"/>
-      <c r="AA52" s="119"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="100"/>
+      <c r="O52" s="100"/>
+      <c r="P52" s="100"/>
+      <c r="Q52" s="100"/>
+      <c r="R52" s="100"/>
+      <c r="S52" s="100"/>
+      <c r="T52" s="100"/>
+      <c r="U52" s="100"/>
+      <c r="V52" s="100"/>
+      <c r="W52" s="100"/>
+      <c r="X52" s="100"/>
+      <c r="Y52" s="100"/>
+      <c r="Z52" s="100"/>
+      <c r="AA52" s="101"/>
       <c r="AB52" s="56"/>
     </row>
     <row r="53" spans="1:80" ht="12.75" thickBot="1">
       <c r="B53" s="63"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="110"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
-      <c r="K53" s="110"/>
-      <c r="L53" s="110"/>
-      <c r="M53" s="110"/>
-      <c r="N53" s="110"/>
-      <c r="O53" s="110"/>
-      <c r="P53" s="110"/>
-      <c r="Q53" s="110"/>
-      <c r="R53" s="110"/>
-      <c r="S53" s="110"/>
-      <c r="T53" s="110"/>
-      <c r="U53" s="110"/>
-      <c r="V53" s="110"/>
-      <c r="W53" s="110"/>
-      <c r="X53" s="110"/>
-      <c r="Y53" s="110"/>
-      <c r="Z53" s="110"/>
-      <c r="AA53" s="111"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="90"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="90"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="90"/>
+      <c r="U53" s="90"/>
+      <c r="V53" s="90"/>
+      <c r="W53" s="90"/>
+      <c r="X53" s="90"/>
+      <c r="Y53" s="90"/>
+      <c r="Z53" s="90"/>
+      <c r="AA53" s="91"/>
       <c r="AB53" s="60"/>
       <c r="CB53" s="69"/>
     </row>
@@ -12875,6 +12549,20 @@
   </sheetData>
   <sheetProtection password="CC71" sheet="1" selectLockedCells="1"/>
   <mergeCells count="30">
+    <mergeCell ref="B36:AA36"/>
+    <mergeCell ref="B38:AA38"/>
+    <mergeCell ref="C6:AA6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:W5"/>
     <mergeCell ref="B48:AA48"/>
     <mergeCell ref="C52:AA52"/>
     <mergeCell ref="C53:AA53"/>
@@ -12891,693 +12579,679 @@
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="W7:X7"/>
     <mergeCell ref="B44:AA44"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:W5"/>
-    <mergeCell ref="B36:AA36"/>
-    <mergeCell ref="B38:AA38"/>
-    <mergeCell ref="C6:AA6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="C18:Z18">
-    <cfRule type="notContainsBlanks" dxfId="290" priority="222">
+    <cfRule type="notContainsBlanks" dxfId="154" priority="222">
       <formula>LEN(TRIM(C18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:Z16">
-    <cfRule type="notContainsBlanks" dxfId="289" priority="221">
+    <cfRule type="notContainsBlanks" dxfId="153" priority="221">
       <formula>LEN(TRIM(C10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA18:AA20 AA22:AA32 AA10:AA16">
-    <cfRule type="notContainsBlanks" dxfId="288" priority="223">
+    <cfRule type="notContainsBlanks" dxfId="152" priority="223">
       <formula>LEN(TRIM(AA10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:AA53">
-    <cfRule type="notContainsBlanks" dxfId="287" priority="220">
+    <cfRule type="notContainsBlanks" dxfId="151" priority="220">
       <formula>LEN(TRIM(B53))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 B3">
-    <cfRule type="notContainsBlanks" dxfId="286" priority="219">
+    <cfRule type="notContainsBlanks" dxfId="150" priority="219">
       <formula>LEN(TRIM(B3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="notContainsBlanks" dxfId="285" priority="218">
+    <cfRule type="notContainsBlanks" dxfId="149" priority="218">
       <formula>LEN(TRIM(C6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:Z20 C22:Z29 C31:Z32">
-    <cfRule type="notContainsBlanks" dxfId="284" priority="216">
+    <cfRule type="notContainsBlanks" dxfId="148" priority="216">
       <formula>LEN(TRIM(C18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA37">
-    <cfRule type="notContainsBlanks" dxfId="283" priority="215">
+    <cfRule type="notContainsBlanks" dxfId="147" priority="215">
       <formula>LEN(TRIM(AA37))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:Z37">
-    <cfRule type="notContainsBlanks" dxfId="282" priority="214">
+    <cfRule type="notContainsBlanks" dxfId="146" priority="214">
       <formula>LEN(TRIM(C37))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA39:AA42">
-    <cfRule type="notContainsBlanks" dxfId="281" priority="213">
+    <cfRule type="notContainsBlanks" dxfId="145" priority="213">
       <formula>LEN(TRIM(AA39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:Z41">
-    <cfRule type="notContainsBlanks" dxfId="280" priority="212">
+    <cfRule type="notContainsBlanks" dxfId="144" priority="212">
       <formula>LEN(TRIM(C39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:Z40">
-    <cfRule type="expression" dxfId="279" priority="205">
+    <cfRule type="expression" dxfId="143" priority="205">
       <formula>C40&gt;C39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:Z30">
-    <cfRule type="notContainsBlanks" dxfId="278" priority="202">
+    <cfRule type="notContainsBlanks" dxfId="142" priority="202">
       <formula>LEN(TRIM(C30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA43">
-    <cfRule type="notContainsBlanks" dxfId="277" priority="200">
+    <cfRule type="notContainsBlanks" dxfId="141" priority="200">
       <formula>LEN(TRIM(AA43))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:Z43">
-    <cfRule type="notContainsBlanks" dxfId="276" priority="199">
+    <cfRule type="notContainsBlanks" dxfId="140" priority="199">
       <formula>LEN(TRIM(C43))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:Z42">
-    <cfRule type="notContainsBlanks" dxfId="275" priority="193">
+    <cfRule type="notContainsBlanks" dxfId="139" priority="193">
       <formula>LEN(TRIM(C42))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:Z42">
-    <cfRule type="expression" dxfId="274" priority="192">
+    <cfRule type="expression" dxfId="138" priority="192">
       <formula>C42&gt;C41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AA35">
-    <cfRule type="notContainsBlanks" dxfId="273" priority="191">
+    <cfRule type="notContainsBlanks" dxfId="137" priority="191">
       <formula>LEN(TRIM(AA34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA45:AA47">
-    <cfRule type="notContainsBlanks" dxfId="272" priority="189">
+    <cfRule type="notContainsBlanks" dxfId="136" priority="189">
       <formula>LEN(TRIM(AA45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:I47">
-    <cfRule type="notContainsBlanks" dxfId="271" priority="186">
+    <cfRule type="notContainsBlanks" dxfId="135" priority="186">
       <formula>LEN(TRIM(C45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:J47">
-    <cfRule type="notContainsBlanks" dxfId="270" priority="185">
+    <cfRule type="notContainsBlanks" dxfId="134" priority="185">
       <formula>LEN(TRIM(J45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:L47">
-    <cfRule type="notContainsBlanks" dxfId="269" priority="184">
+    <cfRule type="notContainsBlanks" dxfId="133" priority="184">
       <formula>LEN(TRIM(L45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45:N47">
-    <cfRule type="notContainsBlanks" dxfId="268" priority="183">
+    <cfRule type="notContainsBlanks" dxfId="132" priority="183">
       <formula>LEN(TRIM(N45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45:P47">
-    <cfRule type="notContainsBlanks" dxfId="267" priority="182">
+    <cfRule type="notContainsBlanks" dxfId="131" priority="182">
       <formula>LEN(TRIM(P45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R45:R47">
-    <cfRule type="notContainsBlanks" dxfId="266" priority="181">
+    <cfRule type="notContainsBlanks" dxfId="130" priority="181">
       <formula>LEN(TRIM(R45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T45:T47">
-    <cfRule type="notContainsBlanks" dxfId="265" priority="180">
+    <cfRule type="notContainsBlanks" dxfId="129" priority="180">
       <formula>LEN(TRIM(T45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V45:V47">
-    <cfRule type="notContainsBlanks" dxfId="264" priority="179">
+    <cfRule type="notContainsBlanks" dxfId="128" priority="179">
       <formula>LEN(TRIM(V45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X45:X47">
-    <cfRule type="notContainsBlanks" dxfId="263" priority="178">
+    <cfRule type="notContainsBlanks" dxfId="127" priority="178">
       <formula>LEN(TRIM(X45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z45:Z47">
-    <cfRule type="notContainsBlanks" dxfId="262" priority="177">
+    <cfRule type="notContainsBlanks" dxfId="126" priority="177">
       <formula>LEN(TRIM(Z45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB53">
-    <cfRule type="notContainsBlanks" dxfId="261" priority="176">
+    <cfRule type="notContainsBlanks" dxfId="125" priority="176">
       <formula>LEN(TRIM(CB53))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB53">
-    <cfRule type="expression" dxfId="260" priority="173">
+    <cfRule type="expression" dxfId="124" priority="173">
       <formula>CB54&gt;CB53</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45">
-    <cfRule type="expression" dxfId="259" priority="169">
+    <cfRule type="expression" dxfId="123" priority="169">
       <formula>K46&gt;K45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45">
-    <cfRule type="expression" dxfId="258" priority="165">
+    <cfRule type="expression" dxfId="122" priority="165">
       <formula>M46&gt;M45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45">
-    <cfRule type="expression" dxfId="257" priority="161">
+    <cfRule type="expression" dxfId="121" priority="161">
       <formula>O46&gt;O45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q45">
-    <cfRule type="expression" dxfId="256" priority="157">
+    <cfRule type="expression" dxfId="120" priority="157">
       <formula>Q46&gt;Q45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S45">
-    <cfRule type="expression" dxfId="255" priority="153">
+    <cfRule type="expression" dxfId="119" priority="153">
       <formula>S46&gt;S45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U45">
-    <cfRule type="expression" dxfId="254" priority="149">
+    <cfRule type="expression" dxfId="118" priority="149">
       <formula>U46&gt;U45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W45">
-    <cfRule type="expression" dxfId="253" priority="145">
+    <cfRule type="expression" dxfId="117" priority="145">
       <formula>W46&gt;W45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y45">
-    <cfRule type="expression" dxfId="252" priority="141">
+    <cfRule type="expression" dxfId="116" priority="141">
       <formula>Y46&gt;Y45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB54:CB55">
-    <cfRule type="notContainsBlanks" dxfId="251" priority="140">
+    <cfRule type="notContainsBlanks" dxfId="115" priority="140">
       <formula>LEN(TRIM(CB54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB55">
-    <cfRule type="expression" dxfId="250" priority="139">
+    <cfRule type="expression" dxfId="114" priority="139">
       <formula>CB55&gt;CB54</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB54">
-    <cfRule type="expression" dxfId="249" priority="138">
+    <cfRule type="expression" dxfId="113" priority="138">
       <formula>CB55&gt;CB54</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C35">
-    <cfRule type="notContainsBlanks" dxfId="248" priority="137">
+    <cfRule type="notContainsBlanks" dxfId="112" priority="137">
       <formula>LEN(TRIM(C34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="247" priority="136">
+    <cfRule type="expression" dxfId="111" priority="136">
       <formula>C35&gt;C34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="246" priority="135">
+    <cfRule type="expression" dxfId="110" priority="135">
       <formula>C35&gt;C34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D35">
-    <cfRule type="notContainsBlanks" dxfId="245" priority="134">
+    <cfRule type="notContainsBlanks" dxfId="109" priority="134">
       <formula>LEN(TRIM(D34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="244" priority="133">
+    <cfRule type="expression" dxfId="108" priority="133">
       <formula>D35&gt;D34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="243" priority="132">
+    <cfRule type="expression" dxfId="107" priority="132">
       <formula>D35&gt;D34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E35">
-    <cfRule type="notContainsBlanks" dxfId="242" priority="131">
+    <cfRule type="notContainsBlanks" dxfId="106" priority="131">
       <formula>LEN(TRIM(E34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="241" priority="130">
+    <cfRule type="expression" dxfId="105" priority="130">
       <formula>E35&gt;E34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="240" priority="129">
+    <cfRule type="expression" dxfId="104" priority="129">
       <formula>E35&gt;E34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F35">
-    <cfRule type="notContainsBlanks" dxfId="239" priority="128">
+    <cfRule type="notContainsBlanks" dxfId="103" priority="128">
       <formula>LEN(TRIM(F34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="238" priority="127">
+    <cfRule type="expression" dxfId="102" priority="127">
       <formula>F35&gt;F34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="237" priority="126">
+    <cfRule type="expression" dxfId="101" priority="126">
       <formula>F35&gt;F34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G35">
-    <cfRule type="notContainsBlanks" dxfId="236" priority="125">
+    <cfRule type="notContainsBlanks" dxfId="100" priority="125">
       <formula>LEN(TRIM(G34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="235" priority="124">
+    <cfRule type="expression" dxfId="99" priority="124">
       <formula>G35&gt;G34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="234" priority="123">
+    <cfRule type="expression" dxfId="98" priority="123">
       <formula>G35&gt;G34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:H35">
-    <cfRule type="notContainsBlanks" dxfId="233" priority="122">
+    <cfRule type="notContainsBlanks" dxfId="97" priority="122">
       <formula>LEN(TRIM(H34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="232" priority="121">
+    <cfRule type="expression" dxfId="96" priority="121">
       <formula>H35&gt;H34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="231" priority="120">
+    <cfRule type="expression" dxfId="95" priority="120">
       <formula>H35&gt;H34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:I35">
-    <cfRule type="notContainsBlanks" dxfId="230" priority="119">
+    <cfRule type="notContainsBlanks" dxfId="94" priority="119">
       <formula>LEN(TRIM(I34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="229" priority="118">
+    <cfRule type="expression" dxfId="93" priority="118">
       <formula>I35&gt;I34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="228" priority="117">
+    <cfRule type="expression" dxfId="92" priority="117">
       <formula>I35&gt;I34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:J35">
-    <cfRule type="notContainsBlanks" dxfId="227" priority="116">
+    <cfRule type="notContainsBlanks" dxfId="91" priority="116">
       <formula>LEN(TRIM(J34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="expression" dxfId="226" priority="115">
+    <cfRule type="expression" dxfId="90" priority="115">
       <formula>J35&gt;J34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="expression" dxfId="225" priority="114">
+    <cfRule type="expression" dxfId="89" priority="114">
       <formula>J35&gt;J34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:K35">
-    <cfRule type="notContainsBlanks" dxfId="224" priority="113">
+    <cfRule type="notContainsBlanks" dxfId="88" priority="113">
       <formula>LEN(TRIM(K34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="expression" dxfId="223" priority="112">
+    <cfRule type="expression" dxfId="87" priority="112">
       <formula>K35&gt;K34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="222" priority="111">
+    <cfRule type="expression" dxfId="86" priority="111">
       <formula>K35&gt;K34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34:L35">
-    <cfRule type="notContainsBlanks" dxfId="221" priority="110">
+    <cfRule type="notContainsBlanks" dxfId="85" priority="110">
       <formula>LEN(TRIM(L34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="expression" dxfId="220" priority="109">
+    <cfRule type="expression" dxfId="84" priority="109">
       <formula>L35&gt;L34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="expression" dxfId="219" priority="108">
+    <cfRule type="expression" dxfId="83" priority="108">
       <formula>L35&gt;L34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M35">
-    <cfRule type="notContainsBlanks" dxfId="218" priority="107">
+    <cfRule type="notContainsBlanks" dxfId="82" priority="107">
       <formula>LEN(TRIM(M34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="expression" dxfId="217" priority="106">
+    <cfRule type="expression" dxfId="81" priority="106">
       <formula>M35&gt;M34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34">
-    <cfRule type="expression" dxfId="216" priority="105">
+    <cfRule type="expression" dxfId="80" priority="105">
       <formula>M35&gt;M34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N35">
-    <cfRule type="notContainsBlanks" dxfId="215" priority="104">
+    <cfRule type="notContainsBlanks" dxfId="79" priority="104">
       <formula>LEN(TRIM(N34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="expression" dxfId="214" priority="103">
+    <cfRule type="expression" dxfId="78" priority="103">
       <formula>N35&gt;N34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="expression" dxfId="213" priority="102">
+    <cfRule type="expression" dxfId="77" priority="102">
       <formula>N35&gt;N34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:O35">
-    <cfRule type="notContainsBlanks" dxfId="212" priority="101">
+    <cfRule type="notContainsBlanks" dxfId="76" priority="101">
       <formula>LEN(TRIM(O34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35">
-    <cfRule type="expression" dxfId="211" priority="100">
+    <cfRule type="expression" dxfId="75" priority="100">
       <formula>O35&gt;O34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34">
-    <cfRule type="expression" dxfId="210" priority="99">
+    <cfRule type="expression" dxfId="74" priority="99">
       <formula>O35&gt;O34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:P35">
-    <cfRule type="notContainsBlanks" dxfId="209" priority="98">
+    <cfRule type="notContainsBlanks" dxfId="73" priority="98">
       <formula>LEN(TRIM(P34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35">
-    <cfRule type="expression" dxfId="208" priority="97">
+    <cfRule type="expression" dxfId="72" priority="97">
       <formula>P35&gt;P34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34">
-    <cfRule type="expression" dxfId="207" priority="96">
+    <cfRule type="expression" dxfId="71" priority="96">
       <formula>P35&gt;P34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34:Q35">
-    <cfRule type="notContainsBlanks" dxfId="206" priority="95">
+    <cfRule type="notContainsBlanks" dxfId="70" priority="95">
       <formula>LEN(TRIM(Q34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35">
-    <cfRule type="expression" dxfId="205" priority="94">
+    <cfRule type="expression" dxfId="69" priority="94">
       <formula>Q35&gt;Q34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="expression" dxfId="204" priority="93">
+    <cfRule type="expression" dxfId="68" priority="93">
       <formula>Q35&gt;Q34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:R35">
-    <cfRule type="notContainsBlanks" dxfId="203" priority="92">
+    <cfRule type="notContainsBlanks" dxfId="67" priority="92">
       <formula>LEN(TRIM(R34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R35">
-    <cfRule type="expression" dxfId="202" priority="91">
+    <cfRule type="expression" dxfId="66" priority="91">
       <formula>R35&gt;R34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34">
-    <cfRule type="expression" dxfId="201" priority="90">
+    <cfRule type="expression" dxfId="65" priority="90">
       <formula>R35&gt;R34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34:S35">
-    <cfRule type="notContainsBlanks" dxfId="200" priority="89">
+    <cfRule type="notContainsBlanks" dxfId="64" priority="89">
       <formula>LEN(TRIM(S34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S35">
-    <cfRule type="expression" dxfId="199" priority="88">
+    <cfRule type="expression" dxfId="63" priority="88">
       <formula>S35&gt;S34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34">
-    <cfRule type="expression" dxfId="198" priority="87">
+    <cfRule type="expression" dxfId="62" priority="87">
       <formula>S35&gt;S34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T34:T35">
-    <cfRule type="notContainsBlanks" dxfId="197" priority="86">
+    <cfRule type="notContainsBlanks" dxfId="61" priority="86">
       <formula>LEN(TRIM(T34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35">
-    <cfRule type="expression" dxfId="196" priority="85">
+    <cfRule type="expression" dxfId="60" priority="85">
       <formula>T35&gt;T34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T34">
-    <cfRule type="expression" dxfId="195" priority="84">
+    <cfRule type="expression" dxfId="59" priority="84">
       <formula>T35&gt;T34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:U35">
-    <cfRule type="notContainsBlanks" dxfId="194" priority="83">
+    <cfRule type="notContainsBlanks" dxfId="58" priority="83">
       <formula>LEN(TRIM(U34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U35">
-    <cfRule type="expression" dxfId="193" priority="82">
+    <cfRule type="expression" dxfId="57" priority="82">
       <formula>U35&gt;U34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34">
-    <cfRule type="expression" dxfId="192" priority="81">
+    <cfRule type="expression" dxfId="56" priority="81">
       <formula>U35&gt;U34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34:V35">
-    <cfRule type="notContainsBlanks" dxfId="191" priority="80">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="80">
       <formula>LEN(TRIM(V34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="expression" dxfId="190" priority="79">
+    <cfRule type="expression" dxfId="54" priority="79">
       <formula>V35&gt;V34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="expression" dxfId="189" priority="78">
+    <cfRule type="expression" dxfId="53" priority="78">
       <formula>V35&gt;V34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W34:W35">
-    <cfRule type="notContainsBlanks" dxfId="188" priority="77">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="77">
       <formula>LEN(TRIM(W34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="expression" dxfId="187" priority="76">
+    <cfRule type="expression" dxfId="51" priority="76">
       <formula>W35&gt;W34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W34">
-    <cfRule type="expression" dxfId="186" priority="75">
+    <cfRule type="expression" dxfId="50" priority="75">
       <formula>W35&gt;W34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34:X35">
-    <cfRule type="notContainsBlanks" dxfId="185" priority="74">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="74">
       <formula>LEN(TRIM(X34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35">
-    <cfRule type="expression" dxfId="184" priority="73">
+    <cfRule type="expression" dxfId="48" priority="73">
       <formula>X35&gt;X34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34">
-    <cfRule type="expression" dxfId="183" priority="72">
+    <cfRule type="expression" dxfId="47" priority="72">
       <formula>X35&gt;X34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y34:Y35">
-    <cfRule type="notContainsBlanks" dxfId="182" priority="71">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="71">
       <formula>LEN(TRIM(Y34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y35">
-    <cfRule type="expression" dxfId="181" priority="70">
+    <cfRule type="expression" dxfId="45" priority="70">
       <formula>Y35&gt;Y34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y34">
-    <cfRule type="expression" dxfId="180" priority="69">
+    <cfRule type="expression" dxfId="44" priority="69">
       <formula>Y35&gt;Y34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z34:Z35">
-    <cfRule type="notContainsBlanks" dxfId="179" priority="68">
+    <cfRule type="notContainsBlanks" dxfId="43" priority="68">
       <formula>LEN(TRIM(Z34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z35">
-    <cfRule type="expression" dxfId="178" priority="67">
+    <cfRule type="expression" dxfId="42" priority="67">
       <formula>Z35&gt;Z34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z34">
-    <cfRule type="expression" dxfId="177" priority="66">
+    <cfRule type="expression" dxfId="41" priority="66">
       <formula>Z35&gt;Z34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y47 W47 U47 S47 Q47 O47 M47 K47">
-    <cfRule type="notContainsBlanks" dxfId="176" priority="58">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="58">
       <formula>LEN(TRIM(K47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA49:AA51">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="20">
       <formula>LEN(TRIM(AA49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K50 M49:M50 O49:O50 Q49:Q50 S49:S50 U49:U50 W49:W50 Y49:Y50">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="19">
       <formula>LEN(TRIM(K49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:I51">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="18">
       <formula>LEN(TRIM(C49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:J51">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="17">
       <formula>LEN(TRIM(J49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:L51">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="16">
       <formula>LEN(TRIM(L49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49:N51">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="15">
       <formula>LEN(TRIM(N49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49:P51">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="14">
       <formula>LEN(TRIM(P49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R49:R51">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="13">
       <formula>LEN(TRIM(R49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T49:T51">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="12">
       <formula>LEN(TRIM(T49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49:V51">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="11">
       <formula>LEN(TRIM(V49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X49:X51">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="10">
       <formula>LEN(TRIM(X49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z49:Z51">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="9">
       <formula>LEN(TRIM(Z49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="8">
       <formula>LEN(TRIM(K51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="7">
       <formula>LEN(TRIM(M51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="6">
       <formula>LEN(TRIM(O51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="5">
       <formula>LEN(TRIM(Q51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S51">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="4">
       <formula>LEN(TRIM(S51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U51">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="3">
       <formula>LEN(TRIM(U51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="2">
       <formula>LEN(TRIM(W51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y51">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="1">
       <formula>LEN(TRIM(Y51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24709,6 +24383,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA9366B03F6EC145B189534E5AC3D6E6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ffc27aaa6afa60559960f746ac0a40ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="dac3fa0a-9923-49c3-b4ba-df6390fa58ea" xmlns:ns4="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6816e770e34b85fcdcbb3032b3d95e9" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -24942,25 +24634,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45088050-6D1C-4374-A6E1-B9B58326C08D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="dac3fa0a-9923-49c3-b4ba-df6390fa58ea"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F970A073-BA64-4372-95DC-98C3FFA83DDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E813427-ED26-482C-AA95-5E8CE21F89AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24978,30 +24678,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F970A073-BA64-4372-95DC-98C3FFA83DDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45088050-6D1C-4374-A6E1-B9B58326C08D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="dac3fa0a-9923-49c3-b4ba-df6390fa58ea"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>